--- a/sputnik/personal/uch/uch332.xlsx
+++ b/sputnik/personal/uch/uch332.xlsx
@@ -144,10 +144,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/sputnik/personal/uch/uch332.xlsx
+++ b/sputnik/personal/uch/uch332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +152,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,7 +463,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -537,9 +541,15 @@
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11312.5</v>
+      </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch332.xlsx
+++ b/sputnik/personal/uch/uch332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплачен взнос  за период с 01.08.2020 до 30.04.2021 =8484,38</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,10 +556,16 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="13">
+        <v>44137</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>8500</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>

--- a/sputnik/personal/uch/uch332.xlsx
+++ b/sputnik/personal/uch/uch332.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплачен взнос  за период с 01.08.2020 до 30.04.2021 =8484,38</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,9 +571,15 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10">
+        <v>12048.03</v>
+      </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
